--- a/Printing-Testing Information/3-Point-Bend-Specimen/Testing_Order-3_Point_Bending.xlsx
+++ b/Printing-Testing Information/3-Point-Bend-Specimen/Testing_Order-3_Point_Bending.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berkeley\Documents\GitHub\3D-Filament-Dyes\Randomize-Prints\3-Point-Bend-Specimen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berkeley\Documents\GitHub\3D-Filament-Dyes\Printing-Testing Information\3-Point-Bend-Specimen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD65AF50-4369-4444-B392-DEB30CFD3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283FD9FC-EE02-49AD-A1E8-F0555F967EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{7076655B-6075-4792-83BD-9D19FBB59301}"/>
+    <workbookView xWindow="-28920" yWindow="3780" windowWidth="29040" windowHeight="15720" xr2:uid="{7076655B-6075-4792-83BD-9D19FBB59301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,49 +125,49 @@
     <t>Print_15</t>
   </si>
   <si>
-    <t>red_200</t>
-  </si>
-  <si>
-    <t>blue_230</t>
-  </si>
-  <si>
-    <t>red_215</t>
-  </si>
-  <si>
-    <t>green_200</t>
-  </si>
-  <si>
-    <t>blue_200</t>
-  </si>
-  <si>
-    <t>black_230</t>
-  </si>
-  <si>
-    <t>red_230</t>
-  </si>
-  <si>
-    <t>purple_230</t>
-  </si>
-  <si>
-    <t>purple_200</t>
-  </si>
-  <si>
-    <t>blue_215</t>
-  </si>
-  <si>
-    <t>green_230</t>
-  </si>
-  <si>
-    <t>black_200</t>
-  </si>
-  <si>
-    <t>black_215</t>
-  </si>
-  <si>
-    <t>purple_215</t>
-  </si>
-  <si>
-    <t>green_215</t>
+    <t>Red_200</t>
+  </si>
+  <si>
+    <t>Red_215</t>
+  </si>
+  <si>
+    <t>Red_230</t>
+  </si>
+  <si>
+    <t>Blue_230</t>
+  </si>
+  <si>
+    <t>Blue_200</t>
+  </si>
+  <si>
+    <t>Blue_215</t>
+  </si>
+  <si>
+    <t>Black_230</t>
+  </si>
+  <si>
+    <t>Black_200</t>
+  </si>
+  <si>
+    <t>Black_215</t>
+  </si>
+  <si>
+    <t>Green_200</t>
+  </si>
+  <si>
+    <t>Green_230</t>
+  </si>
+  <si>
+    <t>Green_215</t>
+  </si>
+  <si>
+    <t>Purple_230</t>
+  </si>
+  <si>
+    <t>Purple_200</t>
+  </si>
+  <si>
+    <t>Purple_215</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -223,7 +223,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -562,7 +562,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>45615</v>
@@ -634,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>45615</v>
@@ -651,7 +651,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2">
         <v>45615</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
         <v>45615</v>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>45615</v>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
         <v>45615</v>
@@ -753,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2">
         <v>45615</v>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>45615</v>
@@ -787,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
         <v>45615</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2">
         <v>45615</v>
@@ -821,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
         <v>45615</v>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2">
         <v>45615</v>
@@ -889,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>45615</v>
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G20" s="2">
         <v>45615</v>
@@ -923,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2">
         <v>45615</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2">
         <v>45615</v>
@@ -957,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2">
         <v>45615</v>
@@ -974,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G24" s="2">
         <v>45615</v>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G25" s="2">
         <v>45615</v>
@@ -1008,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="2">
         <v>45615</v>
@@ -1025,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2">
         <v>45615</v>
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28" s="2">
         <v>45615</v>
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2">
         <v>45615</v>
@@ -1076,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2">
         <v>45615</v>
@@ -1093,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="2">
         <v>45615</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2">
         <v>45615</v>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" s="2">
         <v>45615</v>
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G35" s="2">
         <v>45617</v>
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G36" s="2">
         <v>45617</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G37" s="2">
         <v>45617</v>
@@ -1212,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="2">
         <v>45617</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G39" s="2">
         <v>45617</v>
@@ -1263,7 +1263,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G41" s="2">
         <v>45617</v>
@@ -1280,7 +1280,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42" s="2">
         <v>45617</v>
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G43" s="2">
         <v>45617</v>
@@ -1314,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G44" s="2">
         <v>45617</v>
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45" s="2">
         <v>45617</v>
@@ -1365,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G47" s="2">
         <v>45617</v>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G49" s="2">
         <v>45617</v>
@@ -1433,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G51" s="2">
         <v>45617</v>
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52" s="2">
         <v>45617</v>
@@ -1467,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53" s="2">
         <v>45617</v>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G54" s="2">
         <v>45617</v>
@@ -1518,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G56" s="2">
         <v>45617</v>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G58" s="2">
         <v>45617</v>
@@ -1569,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G59" s="2">
         <v>45617</v>
@@ -1586,7 +1586,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G60" s="2">
         <v>45617</v>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61" s="2">
         <v>45617</v>
